--- a/biology/Histoire de la zoologie et de la botanique/Patrick_Blanc/Patrick_Blanc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Patrick_Blanc/Patrick_Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Blanc né le 3 juin 1953 à Issy-les-Moulineaux[1] est biologiste, botaniste, chercheur au CNRS. Il invente en 1986 les murs végétalisés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Blanc né le 3 juin 1953 à Issy-les-Moulineaux est biologiste, botaniste, chercheur au CNRS. Il invente en 1986 les murs végétalisés.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enfant il est aquariophile et s’intéresse aux plantes. En 1972, alors qu'il est étudiant en botanique, il voyage en Thaïlande et Malaisie et découvre les plantes des sous-bois tropicaux capables de se contenter de peu de lumière[1]. 
-Il entre au CNRS en 1982 et obtient son doctorat ès science à l'université Pierre-et-Marie-Curie en 1989[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfant il est aquariophile et s’intéresse aux plantes. En 1972, alors qu'il est étudiant en botanique, il voyage en Thaïlande et Malaisie et découvre les plantes des sous-bois tropicaux capables de se contenter de peu de lumière. 
+Il entre au CNRS en 1982 et obtient son doctorat ès science à l'université Pierre-et-Marie-Curie en 1989.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>L'inventeur des murs végétaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réalise un premier mur végétal en 1986 à la cité des sciences de La Vilette et dépose un brevet sur les murs végétaux en 1988.
 Il décrit ainsi son concept de mur végétalisé :
 « 
-Son concept de mur végétalisé sur feutre est né pendant son enfance alors qu'il a 12-13 ans : voulant filtrer l'eau de son aquarium, il s'inspire d'une revue d'aquariophilie allemande pour utiliser des racines de Philodendron qui extraient les excès de sels minéraux et d'azote. Cette plante d'intérieur étant grimpante, il a l'idée de la fixer au mur recouvert d'une planche feutrée (feutre de fibres de noix de coco, laine de roche, sphaignes puis finalement feutre synthétique imputrescible) afin de développer au maximum ses racines. Devenu botaniste, il découvre en 1972 les plantes tropicales épiphytes, saxicoles et myrmécophytes et les adapte à ses murs[3].
+Son concept de mur végétalisé sur feutre est né pendant son enfance alors qu'il a 12-13 ans : voulant filtrer l'eau de son aquarium, il s'inspire d'une revue d'aquariophilie allemande pour utiliser des racines de Philodendron qui extraient les excès de sels minéraux et d'azote. Cette plante d'intérieur étant grimpante, il a l'idée de la fixer au mur recouvert d'une planche feutrée (feutre de fibres de noix de coco, laine de roche, sphaignes puis finalement feutre synthétique imputrescible) afin de développer au maximum ses racines. Devenu botaniste, il découvre en 1972 les plantes tropicales épiphytes, saxicoles et myrmécophytes et les adapte à ses murs.
  »
 Ce type de réalisation évoque les notions de génie écologique et de quinzième cible HQE, si ce n'est que cette dernière encourage l'utilisation d'espèces plus locales, en extérieur au moins.
 </t>
@@ -579,7 +595,9 @@
           <t>Quelques réalisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1986 : premier mur végétal, réalisé à la Cité des sciences et de l'industrie à Paris
 1994 : Festival des jardins de Chaumont-sur-Loire
@@ -599,15 +617,15 @@
 2007 : mur du magasin BHV Hommes, 4e arrondissement de Paris
 2007 : mur végétal CaixaForum Madrid
 2008 : Muséum d'Histoire Naturelle à Toulouse
-2008 : arche du rond-point de Grand Théâtre de Provence à Aix-en-Provence (650 m2 sur 15 mètres de hauteur avec 22 000 plantations)[4]
+2008 : arche du rond-point de Grand Théâtre de Provence à Aix-en-Provence (650 m2 sur 15 mètres de hauteur avec 22 000 plantations)
 2008 : tour de cristal à Madrid
 2008 : mur végétal Galeries Lafayette à Berlin
 2008 : Leamouth Development à Londres
 2010 : plafond de la Serre du Jardin des plantes de Paris
 2011 : Drew School San Francisco
-2012 : mur végétal de la librairie Dussmann KulturKaufhaus, Berlin[5]
+2012 : mur végétal de la librairie Dussmann KulturKaufhaus, Berlin
 2017 : Village des marques McArthurGlen Provence à Miramas dans les Bouches du Rhône
-2018 : façade du Musée d'art contemporain de Pusan (Corée du Sud), sur l'île Eulsuk[6]</t>
+2018 : façade du Musée d'art contemporain de Pusan (Corée du Sud), sur l'île Eulsuk</t>
         </is>
       </c>
     </row>
@@ -635,10 +653,12 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Printemps 1996, « Les folles Ipomées » au Festival international des jardins de Chaumont-sur-Loire, une cinquantaine de spécimens de la famille des Convolvulaceae qui seront à l’origine de la Collection nationale de Convolvulacées[7].
-2006 : « Folies végétales », Espace EDF Electra, du 8 décembre 2006 au 18 mars 2007[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Printemps 1996, « Les folles Ipomées » au Festival international des jardins de Chaumont-sur-Loire, une cinquantaine de spécimens de la famille des Convolvulaceae qui seront à l’origine de la Collection nationale de Convolvulacées.
+2006 : « Folies végétales », Espace EDF Electra, du 8 décembre 2006 au 18 mars 2007.</t>
         </is>
       </c>
     </row>
